--- a/05-Intermediario-MaisFerramentas.xlsx
+++ b/05-Intermediario-MaisFerramentas.xlsx
@@ -5,18 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Curso-Excel-Avancado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00139DD2-254A-4725-95F7-17D3F7A8D55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EAF78D-6791-43E5-86AE-C9ADFF2DAA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pessoas" sheetId="1" r:id="rId1"/>
-    <sheet name="Gráfico1" sheetId="3" r:id="rId2"/>
-    <sheet name="Vendas" sheetId="2" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
+    <sheet name="Gráfico1" sheetId="3" r:id="rId3"/>
+    <sheet name="Vendas" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$E$4:$J$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">Planilha1!$E$22:$J$24</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="1">Planilha1!$E$18:$J$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="88">
   <si>
     <t>Nome</t>
   </si>
@@ -196,12 +202,117 @@
   <si>
     <t>Salário (milhares)</t>
   </si>
+  <si>
+    <t>Aluno</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t>1º</t>
+  </si>
+  <si>
+    <t>2º</t>
+  </si>
+  <si>
+    <t>3º</t>
+  </si>
+  <si>
+    <t>4º</t>
+  </si>
+  <si>
+    <t>5º</t>
+  </si>
+  <si>
+    <t>6º</t>
+  </si>
+  <si>
+    <t>7º</t>
+  </si>
+  <si>
+    <t>8º</t>
+  </si>
+  <si>
+    <t>9º</t>
+  </si>
+  <si>
+    <t>10º</t>
+  </si>
+  <si>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Naval</t>
+  </si>
+  <si>
+    <t>Produção</t>
+  </si>
+  <si>
+    <t>Mecanica</t>
+  </si>
+  <si>
+    <t>Eletrica</t>
+  </si>
+  <si>
+    <t>Eletronica</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>Reprovado</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>mariana</t>
+  </si>
+  <si>
+    <t>joselito</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>tatiana</t>
+  </si>
+  <si>
+    <t>Filtro Avancado</t>
+  </si>
+  <si>
+    <t>sebastiao</t>
+  </si>
+  <si>
+    <t>raul</t>
+  </si>
+  <si>
+    <t>Classificação Avancada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +328,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +354,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -318,11 +447,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -342,6 +508,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3688,6 +3859,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3730,6 +3906,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3772,6 +3953,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3814,6 +4000,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3856,6 +4047,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3898,6 +4094,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3945,10 +4146,6 @@
                   <a:prstGeom prst="wedgeRectCallout">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
               </c:ext>
             </c:extLst>
@@ -4067,6 +4264,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4109,6 +4311,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4151,6 +4358,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4193,6 +4405,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4235,6 +4452,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4277,6 +4499,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4392,6 +4619,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4434,6 +4666,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4476,6 +4713,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4518,6 +4760,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4560,6 +4807,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4602,6 +4854,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4717,6 +4974,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4759,6 +5021,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4801,6 +5068,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4843,6 +5115,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4885,6 +5162,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4927,6 +5209,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5042,6 +5329,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5084,6 +5376,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5126,6 +5423,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5168,6 +5470,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5210,6 +5517,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5252,6 +5564,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5367,6 +5684,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5409,6 +5731,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5451,6 +5778,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5493,6 +5825,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5535,6 +5872,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5577,6 +5919,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -5692,6 +6039,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5734,6 +6086,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5776,6 +6133,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5818,6 +6180,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5860,6 +6227,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5902,6 +6274,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6017,6 +6394,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6059,6 +6441,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6101,6 +6488,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6143,6 +6535,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6185,6 +6582,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6227,6 +6629,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6342,6 +6749,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6384,6 +6796,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6426,6 +6843,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6468,6 +6890,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6510,6 +6937,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6552,6 +6984,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6667,6 +7104,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -6709,6 +7151,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -6751,6 +7198,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -6793,6 +7245,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -6835,6 +7292,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -6877,6 +7339,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -6992,6 +7459,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7034,6 +7506,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7076,6 +7553,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7118,6 +7600,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7160,6 +7647,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -7202,6 +7694,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -7317,6 +7814,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7359,6 +7861,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7401,6 +7908,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7443,6 +7955,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7485,6 +8002,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -7527,6 +8049,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-F51B-46B4-B1E3-3E345B2C7ACB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -7812,46 +8339,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9929,507 +10416,11 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="257">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1D314431-0A95-4E6A-8CDF-C9F590A2AF1E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -10517,7 +10508,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9636512" cy="5993780"/>
+    <xdr:ext cx="9631326" cy="5998535"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10624,6 +10615,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7653E4B-656D-4700-93CF-433F72BDE190}" name="Tabela1" displayName="Tabela1" ref="E4:J16" totalsRowShown="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:J16">
+    <sortCondition ref="F5:F16"/>
+    <sortCondition descending="1" ref="I5:I16"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CCDE7240-666F-446E-B4E9-5712D4BD53F6}" name="Aluno"/>
+    <tableColumn id="2" xr3:uid="{3F838E7F-E54C-4A1B-97CE-A8109C691D97}" name="Idade"/>
+    <tableColumn id="3" xr3:uid="{8D81C653-234E-4A86-927B-0929DD780882}" name="Período"/>
+    <tableColumn id="6" xr3:uid="{D1FD498F-194E-4736-8778-664633515A51}" name="Curso"/>
+    <tableColumn id="4" xr3:uid="{A53B817F-00E1-4155-83C6-5FD38F4F459D}" name="Nota"/>
+    <tableColumn id="5" xr3:uid="{915BC533-B853-499B-A4F0-0DF29AD33A4C}" name="Situação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela3" displayName="Tabela3" ref="D4:P11" totalsRowCount="1">
   <autoFilter ref="D4:P10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="13">
@@ -10913,7 +10922,7 @@
   <dimension ref="G2:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12953,6 +12962,468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1772A520-8987-4731-A3E8-33A40CF7AF39}">
+  <dimension ref="D1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F19" s="22">
+        <v>27</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F20" s="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D19:J20">
+    <sortCondition ref="F19:F20"/>
+    <sortCondition ref="I19:I20"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F16 F19:F20" xr:uid="{84107268-E766-47AB-901E-64FD87C094E0}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G16 G19" xr:uid="{F137F9B7-4170-4B57-B732-E581352E8F1D}">
+      <formula1>$Q$1:$Q$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H16 H19" xr:uid="{04A7CFD8-7B07-4CCE-9CCB-B795032306B1}">
+      <formula1>$O$1:$O$6</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I16" xr:uid="{3A95F206-23E1-4277-8470-219BDAADA4D9}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J16" xr:uid="{BE337637-5990-4E19-BEE0-B270AA82C413}">
+      <formula1>"Aprovado,Reprovado,PF"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D4:P15"/>
   <sheetViews>
